--- a/nv_hso.xlsx
+++ b/nv_hso.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VoVanLinhTinh\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56626753-49C5-44B9-9DD3-D44C4AA43FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="210">
   <si>
     <t>Khởi Hành</t>
   </si>
@@ -660,24 +661,33 @@
   </si>
   <si>
     <t>Suối ma - Lv 47</t>
+  </si>
+  <si>
+    <t>Gặp gỡ Lisa</t>
+  </si>
+  <si>
+    <t>Đến vịnh caribe để bắt 500 heo tím về cho Lisa.</t>
+  </si>
+  <si>
+    <t>Vịnh caribe - Lv 100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -685,7 +695,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -693,24 +703,24 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,6 +764,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEBDB4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,7 +991,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1002,7 +1018,82 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1014,167 +1105,130 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Kiểm tra Ô" xfId="2" builtinId="23"/>
+    <cellStyle name="Tốt" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFEBDB4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1448,22 +1502,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W487"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:W84"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G47" sqref="B47:S47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="5.8984375" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" customWidth="1"/>
+    <col min="4" max="4" width="9.09765625" customWidth="1"/>
+    <col min="19" max="19" width="8.8984375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1484,92 +1538,92 @@
       <c r="R1" s="2"/>
       <c r="S1" s="6"/>
     </row>
-    <row r="2" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="34" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="17" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="56"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+    </row>
+    <row r="3" spans="1:23" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="63"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -1578,31 +1632,31 @@
       <c r="B5" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="37" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="16"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1611,33 +1665,33 @@
       <c r="B6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="31" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="18" t="s">
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1646,31 +1700,31 @@
       <c r="B7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="31" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="16"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="30"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1679,33 +1733,33 @@
       <c r="B8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="31" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="18" t="s">
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1714,33 +1768,33 @@
       <c r="B9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="31" t="s">
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="20" t="s">
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="22"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="27"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1749,138 +1803,138 @@
       <c r="B10" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="31" t="s">
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="20" t="s">
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="22"/>
-    </row>
-    <row r="11" spans="1:23" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="27"/>
+    </row>
+    <row r="11" spans="1:23" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="11" t="s">
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="20" t="s">
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="22"/>
-    </row>
-    <row r="12" spans="1:23" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="27"/>
+    </row>
+    <row r="12" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="11" t="s">
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="20" t="s">
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="22"/>
-    </row>
-    <row r="13" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="67"/>
+    </row>
+    <row r="13" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="11" t="s">
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="20" t="s">
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="22"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="27"/>
     </row>
     <row r="14" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1889,896 +1943,896 @@
       <c r="B14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="11" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="20" t="s">
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="22"/>
-    </row>
-    <row r="15" spans="1:23" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="27"/>
+    </row>
+    <row r="15" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="11" t="s">
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="20" t="s">
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="22"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="27"/>
     </row>
     <row r="16" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="11" t="s">
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="20" t="s">
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="22"/>
-    </row>
-    <row r="17" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U16" s="66"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="67"/>
+    </row>
+    <row r="17" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28" t="s">
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="22"/>
-    </row>
-    <row r="18" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="27"/>
+    </row>
+    <row r="18" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="11" t="s">
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="20" t="s">
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="22"/>
-    </row>
-    <row r="19" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="27"/>
+    </row>
+    <row r="19" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="20" t="s">
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="22"/>
-    </row>
-    <row r="20" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="27"/>
+    </row>
+    <row r="20" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="11" t="s">
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="20" t="s">
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="22"/>
-    </row>
-    <row r="21" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="27"/>
+    </row>
+    <row r="21" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="11" t="s">
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="20" t="s">
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="22"/>
-    </row>
-    <row r="22" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="67"/>
+    </row>
+    <row r="22" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="11" t="s">
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="20" t="s">
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="22"/>
-    </row>
-    <row r="23" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="27"/>
+    </row>
+    <row r="23" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="11" t="s">
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="16"/>
-    </row>
-    <row r="24" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="30"/>
+    </row>
+    <row r="24" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="11" t="s">
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="20" t="s">
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="22"/>
-    </row>
-    <row r="25" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="27"/>
+    </row>
+    <row r="25" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="11" t="s">
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="20" t="s">
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="22"/>
-    </row>
-    <row r="26" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="27"/>
+    </row>
+    <row r="26" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="11" t="s">
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="20" t="s">
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="22"/>
-    </row>
-    <row r="27" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="27"/>
+    </row>
+    <row r="27" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="11" t="s">
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="16"/>
-    </row>
-    <row r="28" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="30"/>
+    </row>
+    <row r="28" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>24</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="11" t="s">
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="20" t="s">
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="22"/>
-    </row>
-    <row r="29" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="27"/>
+    </row>
+    <row r="29" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>25</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="11" t="s">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="20" t="s">
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="22"/>
-    </row>
-    <row r="30" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="27"/>
+    </row>
+    <row r="30" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>26</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="11" t="s">
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="20" t="s">
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="74"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="22"/>
-    </row>
-    <row r="31" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="67"/>
+    </row>
+    <row r="31" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>27</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="11" t="s">
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="13"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="38"/>
       <c r="T31" s="57"/>
       <c r="U31" s="58"/>
       <c r="V31" s="58"/>
       <c r="W31" s="59"/>
     </row>
-    <row r="32" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="11" t="s">
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="18" t="s">
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-    </row>
-    <row r="33" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="24"/>
+    </row>
+    <row r="33" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>29</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="11" t="s">
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="20" t="s">
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="22"/>
-    </row>
-    <row r="34" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="27"/>
+    </row>
+    <row r="34" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="11" t="s">
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="16"/>
-    </row>
-    <row r="35" spans="1:23" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="30"/>
+    </row>
+    <row r="35" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>31</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="11" t="s">
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="18" t="s">
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="74"/>
+      <c r="S35" s="75"/>
+      <c r="T35" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18"/>
-      <c r="W35" s="18"/>
-    </row>
-    <row r="36" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U35" s="68"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="68"/>
+    </row>
+    <row r="36" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="11" t="s">
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="18" t="s">
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="U36" s="18"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
-    </row>
-    <row r="37" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+    </row>
+    <row r="37" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="11" t="s">
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="18" t="s">
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="U37" s="18"/>
-      <c r="V37" s="18"/>
-      <c r="W37" s="18"/>
-    </row>
-    <row r="38" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+    </row>
+    <row r="38" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="11" t="s">
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="15"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="16"/>
-    </row>
-    <row r="39" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="30"/>
+    </row>
+    <row r="39" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="11" t="s">
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="18" t="s">
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="24"/>
+      <c r="W39" s="24"/>
     </row>
     <row r="40" spans="1:23" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
@@ -2787,381 +2841,381 @@
       <c r="B40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="11" t="s">
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="18" t="s">
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
-    </row>
-    <row r="41" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U40" s="24"/>
+      <c r="V40" s="24"/>
+      <c r="W40" s="24"/>
+    </row>
+    <row r="41" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="11" t="s">
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="18" t="s">
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="18"/>
-    </row>
-    <row r="42" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U41" s="24"/>
+      <c r="V41" s="24"/>
+      <c r="W41" s="24"/>
+    </row>
+    <row r="42" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="11" t="s">
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="18" t="s">
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18"/>
-      <c r="W42" s="18"/>
-    </row>
-    <row r="43" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U42" s="24"/>
+      <c r="V42" s="24"/>
+      <c r="W42" s="24"/>
+    </row>
+    <row r="43" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>39</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="11" t="s">
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="20" t="s">
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="74"/>
+      <c r="S43" s="75"/>
+      <c r="T43" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="22"/>
-    </row>
-    <row r="44" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U43" s="66"/>
+      <c r="V43" s="66"/>
+      <c r="W43" s="67"/>
+    </row>
+    <row r="44" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="11" t="s">
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="18" t="s">
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="18"/>
-    </row>
-    <row r="45" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U44" s="24"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="24"/>
+    </row>
+    <row r="45" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="11" t="s">
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="18" t="s">
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="18"/>
-    </row>
-    <row r="46" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U45" s="24"/>
+      <c r="V45" s="24"/>
+      <c r="W45" s="24"/>
+    </row>
+    <row r="46" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="11" t="s">
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="15"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="16"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="30"/>
     </row>
     <row r="47" spans="1:23" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>43</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="11" t="s">
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="20" t="s">
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="74"/>
+      <c r="Q47" s="74"/>
+      <c r="R47" s="74"/>
+      <c r="S47" s="75"/>
+      <c r="T47" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21"/>
-      <c r="W47" s="22"/>
-    </row>
-    <row r="48" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U47" s="66"/>
+      <c r="V47" s="66"/>
+      <c r="W47" s="67"/>
+    </row>
+    <row r="48" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="11" t="s">
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="20" t="s">
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="U48" s="21"/>
-      <c r="V48" s="21"/>
-      <c r="W48" s="22"/>
-    </row>
-    <row r="49" spans="1:23" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U48" s="26"/>
+      <c r="V48" s="26"/>
+      <c r="W48" s="27"/>
+    </row>
+    <row r="49" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="11" t="s">
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="18" t="s">
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="U49" s="18"/>
-      <c r="V49" s="18"/>
-      <c r="W49" s="18"/>
-    </row>
-    <row r="50" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U49" s="24"/>
+      <c r="V49" s="24"/>
+      <c r="W49" s="24"/>
+    </row>
+    <row r="50" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="C50" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="28" t="s">
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="20" t="s">
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="U50" s="21"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="22"/>
+      <c r="U50" s="26"/>
+      <c r="V50" s="26"/>
+      <c r="W50" s="27"/>
     </row>
     <row r="51" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
@@ -3170,239 +3224,239 @@
       <c r="B51" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="28" t="s">
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="19" t="s">
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="U51" s="18"/>
-      <c r="V51" s="18"/>
-      <c r="W51" s="18"/>
-    </row>
-    <row r="52" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U51" s="24"/>
+      <c r="V51" s="24"/>
+      <c r="W51" s="24"/>
+    </row>
+    <row r="52" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>48</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="11" t="s">
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-      <c r="S52" s="13"/>
-      <c r="T52" s="18" t="s">
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="38"/>
+      <c r="T52" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="U52" s="18"/>
-      <c r="V52" s="18"/>
-      <c r="W52" s="18"/>
-    </row>
-    <row r="53" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U52" s="24"/>
+      <c r="V52" s="24"/>
+      <c r="W52" s="24"/>
+    </row>
+    <row r="53" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="11" t="s">
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="18" t="s">
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="38"/>
+      <c r="T53" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="U53" s="18"/>
-      <c r="V53" s="18"/>
-      <c r="W53" s="18"/>
-    </row>
-    <row r="54" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U53" s="24"/>
+      <c r="V53" s="24"/>
+      <c r="W53" s="24"/>
+    </row>
+    <row r="54" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>50</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="C54" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="11" t="s">
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="15"/>
-      <c r="V54" s="15"/>
-      <c r="W54" s="16"/>
-    </row>
-    <row r="55" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="38"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="29"/>
+      <c r="V54" s="29"/>
+      <c r="W54" s="30"/>
+    </row>
+    <row r="55" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>51</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="40" t="s">
+      <c r="C55" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="24" t="s">
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="25"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="25"/>
-      <c r="R55" s="25"/>
-      <c r="S55" s="26"/>
-      <c r="T55" s="18" t="s">
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="55"/>
+      <c r="P55" s="55"/>
+      <c r="Q55" s="55"/>
+      <c r="R55" s="55"/>
+      <c r="S55" s="56"/>
+      <c r="T55" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="18"/>
-    </row>
-    <row r="56" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U55" s="24"/>
+      <c r="V55" s="24"/>
+      <c r="W55" s="24"/>
+    </row>
+    <row r="56" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>52</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="40" t="s">
+      <c r="C56" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="24" t="s">
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="25"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="25"/>
-      <c r="R56" s="25"/>
-      <c r="S56" s="26"/>
-      <c r="T56" s="14"/>
-      <c r="U56" s="15"/>
-      <c r="V56" s="15"/>
-      <c r="W56" s="16"/>
-    </row>
-    <row r="57" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="55"/>
+      <c r="N56" s="55"/>
+      <c r="O56" s="55"/>
+      <c r="P56" s="55"/>
+      <c r="Q56" s="55"/>
+      <c r="R56" s="55"/>
+      <c r="S56" s="56"/>
+      <c r="T56" s="28"/>
+      <c r="U56" s="29"/>
+      <c r="V56" s="29"/>
+      <c r="W56" s="30"/>
+    </row>
+    <row r="57" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>53</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="40" t="s">
+      <c r="C57" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="11" t="s">
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="20" t="s">
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="37"/>
+      <c r="S57" s="38"/>
+      <c r="T57" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="U57" s="21"/>
-      <c r="V57" s="21"/>
-      <c r="W57" s="22"/>
+      <c r="U57" s="26"/>
+      <c r="V57" s="26"/>
+      <c r="W57" s="27"/>
     </row>
     <row r="58" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -3411,699 +3465,707 @@
       <c r="B58" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="40" t="s">
+      <c r="C58" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="11" t="s">
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="19" t="s">
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="38"/>
+      <c r="T58" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="U58" s="18"/>
-      <c r="V58" s="18"/>
-      <c r="W58" s="18"/>
-    </row>
-    <row r="59" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U58" s="24"/>
+      <c r="V58" s="24"/>
+      <c r="W58" s="24"/>
+    </row>
+    <row r="59" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C59" s="40" t="s">
+      <c r="C59" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="11" t="s">
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="12"/>
-      <c r="S59" s="13"/>
-      <c r="T59" s="18" t="s">
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="38"/>
+      <c r="T59" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="U59" s="18"/>
-      <c r="V59" s="18"/>
-      <c r="W59" s="18"/>
-    </row>
-    <row r="60" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U59" s="24"/>
+      <c r="V59" s="24"/>
+      <c r="W59" s="24"/>
+    </row>
+    <row r="60" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="11" t="s">
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
-      <c r="S60" s="13"/>
-      <c r="T60" s="18" t="s">
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="38"/>
+      <c r="T60" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="U60" s="18"/>
-      <c r="V60" s="18"/>
-      <c r="W60" s="18"/>
-    </row>
-    <row r="61" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U60" s="24"/>
+      <c r="V60" s="24"/>
+      <c r="W60" s="24"/>
+    </row>
+    <row r="61" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="40" t="s">
+      <c r="C61" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="11" t="s">
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="12"/>
-      <c r="S61" s="13"/>
-      <c r="T61" s="14"/>
-      <c r="U61" s="15"/>
-      <c r="V61" s="15"/>
-      <c r="W61" s="16"/>
-    </row>
-    <row r="62" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="28"/>
+      <c r="U61" s="29"/>
+      <c r="V61" s="29"/>
+      <c r="W61" s="30"/>
+    </row>
+    <row r="62" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="40" t="s">
+      <c r="C62" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="11" t="s">
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="18" t="s">
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="U62" s="18"/>
-      <c r="V62" s="18"/>
-      <c r="W62" s="18"/>
-    </row>
-    <row r="63" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U62" s="24"/>
+      <c r="V62" s="24"/>
+      <c r="W62" s="24"/>
+    </row>
+    <row r="63" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>59</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C63" s="40" t="s">
+      <c r="C63" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="11" t="s">
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="12"/>
-      <c r="S63" s="13"/>
-      <c r="T63" s="14"/>
-      <c r="U63" s="15"/>
-      <c r="V63" s="15"/>
-      <c r="W63" s="16"/>
-    </row>
-    <row r="64" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="37"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="28"/>
+      <c r="U63" s="29"/>
+      <c r="V63" s="29"/>
+      <c r="W63" s="30"/>
+    </row>
+    <row r="64" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>60</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C64" s="40" t="s">
+      <c r="C64" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="11" t="s">
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="12"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="18" t="s">
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="37"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="37"/>
+      <c r="R64" s="37"/>
+      <c r="S64" s="38"/>
+      <c r="T64" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="U64" s="18"/>
-      <c r="V64" s="18"/>
-      <c r="W64" s="18"/>
-    </row>
-    <row r="65" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U64" s="24"/>
+      <c r="V64" s="24"/>
+      <c r="W64" s="24"/>
+    </row>
+    <row r="65" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="40" t="s">
+      <c r="C65" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="11" t="s">
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="12"/>
-      <c r="Q65" s="12"/>
-      <c r="R65" s="12"/>
-      <c r="S65" s="13"/>
-      <c r="T65" s="14"/>
-      <c r="U65" s="15"/>
-      <c r="V65" s="15"/>
-      <c r="W65" s="16"/>
-    </row>
-    <row r="66" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="37"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="28"/>
+      <c r="U65" s="29"/>
+      <c r="V65" s="29"/>
+      <c r="W65" s="30"/>
+    </row>
+    <row r="66" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C66" s="40" t="s">
+      <c r="C66" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="11" t="s">
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="12"/>
-      <c r="R66" s="12"/>
-      <c r="S66" s="13"/>
-      <c r="T66" s="18" t="s">
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="37"/>
+      <c r="R66" s="37"/>
+      <c r="S66" s="38"/>
+      <c r="T66" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="U66" s="18"/>
-      <c r="V66" s="18"/>
-      <c r="W66" s="18"/>
-    </row>
-    <row r="67" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U66" s="24"/>
+      <c r="V66" s="24"/>
+      <c r="W66" s="24"/>
+    </row>
+    <row r="67" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C67" s="40" t="s">
+      <c r="C67" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="11" t="s">
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
-      <c r="P67" s="12"/>
-      <c r="Q67" s="12"/>
-      <c r="R67" s="12"/>
-      <c r="S67" s="13"/>
-      <c r="T67" s="18" t="s">
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="38"/>
+      <c r="T67" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="U67" s="18"/>
-      <c r="V67" s="18"/>
-      <c r="W67" s="18"/>
-    </row>
-    <row r="68" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
+      <c r="U67" s="24"/>
+      <c r="V67" s="24"/>
+      <c r="W67" s="24"/>
+    </row>
+    <row r="68" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C68" s="40" t="s">
+      <c r="C68" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="11" t="s">
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="12"/>
-      <c r="S68" s="13"/>
-      <c r="T68" s="18" t="s">
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="38"/>
+      <c r="T68" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="U68" s="18"/>
-      <c r="V68" s="18"/>
-      <c r="W68" s="18"/>
-    </row>
-    <row r="69" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U68" s="24"/>
+      <c r="V68" s="24"/>
+      <c r="W68" s="24"/>
+    </row>
+    <row r="69" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>65</v>
       </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
-      <c r="S69" s="13"/>
-      <c r="T69" s="14"/>
-      <c r="U69" s="15"/>
-      <c r="V69" s="15"/>
-      <c r="W69" s="16"/>
-    </row>
-    <row r="70" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="37"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="38"/>
+      <c r="T69" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="U69" s="26"/>
+      <c r="V69" s="26"/>
+      <c r="W69" s="27"/>
+    </row>
+    <row r="70" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>66</v>
       </c>
       <c r="B70" s="1"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
-      <c r="S70" s="13"/>
-      <c r="T70" s="14"/>
-      <c r="U70" s="15"/>
-      <c r="V70" s="15"/>
-      <c r="W70" s="16"/>
-    </row>
-    <row r="71" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="32"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="37"/>
+      <c r="S70" s="38"/>
+      <c r="T70" s="28"/>
+      <c r="U70" s="29"/>
+      <c r="V70" s="29"/>
+      <c r="W70" s="30"/>
+    </row>
+    <row r="71" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>67</v>
       </c>
       <c r="B71" s="1"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12"/>
-      <c r="Q71" s="12"/>
-      <c r="R71" s="12"/>
-      <c r="S71" s="13"/>
-      <c r="T71" s="23"/>
-      <c r="U71" s="23"/>
-      <c r="V71" s="23"/>
-      <c r="W71" s="23"/>
-    </row>
-    <row r="72" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="32"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="37"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="37"/>
+      <c r="Q71" s="37"/>
+      <c r="R71" s="37"/>
+      <c r="S71" s="38"/>
+      <c r="T71" s="31"/>
+      <c r="U71" s="31"/>
+      <c r="V71" s="31"/>
+      <c r="W71" s="31"/>
+    </row>
+    <row r="72" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>68</v>
       </c>
       <c r="B72" s="1"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="12"/>
-      <c r="S72" s="13"/>
-      <c r="T72" s="23"/>
-      <c r="U72" s="23"/>
-      <c r="V72" s="23"/>
-      <c r="W72" s="23"/>
-    </row>
-    <row r="73" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="32"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="37"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="37"/>
+      <c r="R72" s="37"/>
+      <c r="S72" s="38"/>
+      <c r="T72" s="31"/>
+      <c r="U72" s="31"/>
+      <c r="V72" s="31"/>
+      <c r="W72" s="31"/>
+    </row>
+    <row r="73" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>69</v>
       </c>
       <c r="B73" s="1"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="12"/>
-      <c r="S73" s="13"/>
-      <c r="T73" s="23"/>
-      <c r="U73" s="23"/>
-      <c r="V73" s="23"/>
-      <c r="W73" s="23"/>
-    </row>
-    <row r="74" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="32"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="37"/>
+      <c r="S73" s="38"/>
+      <c r="T73" s="31"/>
+      <c r="U73" s="31"/>
+      <c r="V73" s="31"/>
+      <c r="W73" s="31"/>
+    </row>
+    <row r="74" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>70</v>
       </c>
       <c r="B74" s="1"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
-      <c r="S74" s="13"/>
-      <c r="T74" s="23"/>
-      <c r="U74" s="23"/>
-      <c r="V74" s="23"/>
-      <c r="W74" s="23"/>
-    </row>
-    <row r="75" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="32"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="37"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="37"/>
+      <c r="R74" s="37"/>
+      <c r="S74" s="38"/>
+      <c r="T74" s="31"/>
+      <c r="U74" s="31"/>
+      <c r="V74" s="31"/>
+      <c r="W74" s="31"/>
+    </row>
+    <row r="75" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="12"/>
-      <c r="S75" s="13"/>
-      <c r="T75" s="23"/>
-      <c r="U75" s="23"/>
-      <c r="V75" s="23"/>
-      <c r="W75" s="23"/>
-    </row>
-    <row r="76" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="32"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="37"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="37"/>
+      <c r="Q75" s="37"/>
+      <c r="R75" s="37"/>
+      <c r="S75" s="38"/>
+      <c r="T75" s="31"/>
+      <c r="U75" s="31"/>
+      <c r="V75" s="31"/>
+      <c r="W75" s="31"/>
+    </row>
+    <row r="76" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="12"/>
-      <c r="Q76" s="12"/>
-      <c r="R76" s="12"/>
-      <c r="S76" s="13"/>
-      <c r="T76" s="23"/>
-      <c r="U76" s="23"/>
-      <c r="V76" s="23"/>
-      <c r="W76" s="23"/>
-    </row>
-    <row r="77" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="32"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="37"/>
+      <c r="O76" s="37"/>
+      <c r="P76" s="37"/>
+      <c r="Q76" s="37"/>
+      <c r="R76" s="37"/>
+      <c r="S76" s="38"/>
+      <c r="T76" s="31"/>
+      <c r="U76" s="31"/>
+      <c r="V76" s="31"/>
+      <c r="W76" s="31"/>
+    </row>
+    <row r="77" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="15"/>
-      <c r="S77" s="16"/>
-      <c r="T77" s="23"/>
-      <c r="U77" s="23"/>
-      <c r="V77" s="23"/>
-      <c r="W77" s="23"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="29"/>
+      <c r="R77" s="29"/>
+      <c r="S77" s="30"/>
+      <c r="T77" s="31"/>
+      <c r="U77" s="31"/>
+      <c r="V77" s="31"/>
+      <c r="W77" s="31"/>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A78" s="50"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="51"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="51"/>
-      <c r="J78" s="51"/>
-      <c r="K78" s="51"/>
-      <c r="L78" s="51"/>
-      <c r="M78" s="51"/>
-      <c r="N78" s="51"/>
-      <c r="O78" s="51"/>
-      <c r="P78" s="51"/>
-      <c r="Q78" s="51"/>
-      <c r="R78" s="51"/>
-      <c r="S78" s="51"/>
-      <c r="T78" s="51"/>
-      <c r="U78" s="51"/>
-      <c r="V78" s="51"/>
-      <c r="W78" s="52"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="13"/>
+      <c r="U78" s="13"/>
+      <c r="V78" s="13"/>
+      <c r="W78" s="14"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A79" s="43" t="s">
+      <c r="A79" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B79" s="44"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="44"/>
-      <c r="J79" s="44"/>
-      <c r="K79" s="44"/>
-      <c r="L79" s="44"/>
-      <c r="M79" s="44"/>
-      <c r="N79" s="44"/>
-      <c r="O79" s="44"/>
-      <c r="P79" s="44"/>
-      <c r="Q79" s="44"/>
-      <c r="R79" s="44"/>
-      <c r="S79" s="44"/>
-      <c r="T79" s="44"/>
-      <c r="U79" s="44"/>
-      <c r="V79" s="44"/>
-      <c r="W79" s="45"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="16"/>
+      <c r="R79" s="16"/>
+      <c r="S79" s="16"/>
+      <c r="T79" s="16"/>
+      <c r="U79" s="16"/>
+      <c r="V79" s="16"/>
+      <c r="W79" s="17"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>1</v>
       </c>
-      <c r="B80" s="60" t="s">
+      <c r="B80" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C80" s="61" t="s">
+      <c r="C80" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D80" s="62"/>
-      <c r="E80" s="62"/>
-      <c r="F80" s="63"/>
-      <c r="G80" s="46" t="s">
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="H80" s="47"/>
-      <c r="I80" s="47"/>
-      <c r="J80" s="47"/>
-      <c r="K80" s="47"/>
-      <c r="L80" s="47"/>
-      <c r="M80" s="47"/>
-      <c r="N80" s="47"/>
-      <c r="O80" s="47"/>
-      <c r="P80" s="47"/>
-      <c r="Q80" s="47"/>
-      <c r="R80" s="47"/>
-      <c r="S80" s="47"/>
-      <c r="T80" s="47"/>
-      <c r="U80" s="47"/>
-      <c r="V80" s="47"/>
-      <c r="W80" s="48"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="19"/>
+      <c r="P80" s="19"/>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="19"/>
+      <c r="S80" s="19"/>
+      <c r="T80" s="19"/>
+      <c r="U80" s="19"/>
+      <c r="V80" s="19"/>
+      <c r="W80" s="20"/>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
@@ -4112,31 +4174,31 @@
       <c r="B81" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C81" s="40" t="s">
+      <c r="C81" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="41"/>
-      <c r="E81" s="41"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="46" t="s">
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="H81" s="47"/>
-      <c r="I81" s="47"/>
-      <c r="J81" s="47"/>
-      <c r="K81" s="47"/>
-      <c r="L81" s="47"/>
-      <c r="M81" s="47"/>
-      <c r="N81" s="47"/>
-      <c r="O81" s="47"/>
-      <c r="P81" s="47"/>
-      <c r="Q81" s="47"/>
-      <c r="R81" s="47"/>
-      <c r="S81" s="47"/>
-      <c r="T81" s="47"/>
-      <c r="U81" s="47"/>
-      <c r="V81" s="47"/>
-      <c r="W81" s="48"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="19"/>
+      <c r="S81" s="19"/>
+      <c r="T81" s="19"/>
+      <c r="U81" s="19"/>
+      <c r="V81" s="19"/>
+      <c r="W81" s="20"/>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
@@ -4145,116 +4207,116 @@
       <c r="B82" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C82" s="40" t="s">
+      <c r="C82" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D82" s="41"/>
-      <c r="E82" s="41"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="46" t="s">
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="H82" s="47"/>
-      <c r="I82" s="47"/>
-      <c r="J82" s="47"/>
-      <c r="K82" s="47"/>
-      <c r="L82" s="47"/>
-      <c r="M82" s="47"/>
-      <c r="N82" s="47"/>
-      <c r="O82" s="47"/>
-      <c r="P82" s="47"/>
-      <c r="Q82" s="47"/>
-      <c r="R82" s="47"/>
-      <c r="S82" s="47"/>
-      <c r="T82" s="47"/>
-      <c r="U82" s="47"/>
-      <c r="V82" s="47"/>
-      <c r="W82" s="48"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
+      <c r="S82" s="19"/>
+      <c r="T82" s="19"/>
+      <c r="U82" s="19"/>
+      <c r="V82" s="19"/>
+      <c r="W82" s="20"/>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="49"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="49"/>
-      <c r="H83" s="49"/>
-      <c r="I83" s="49"/>
-      <c r="J83" s="49"/>
-      <c r="K83" s="49"/>
-      <c r="L83" s="49"/>
-      <c r="M83" s="49"/>
-      <c r="N83" s="49"/>
-      <c r="O83" s="49"/>
-      <c r="P83" s="49"/>
-      <c r="Q83" s="49"/>
-      <c r="R83" s="49"/>
-      <c r="S83" s="49"/>
-      <c r="T83" s="49"/>
-      <c r="U83" s="49"/>
-      <c r="V83" s="49"/>
-      <c r="W83" s="49"/>
+      <c r="A83" s="21"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="21"/>
+      <c r="O83" s="21"/>
+      <c r="P83" s="21"/>
+      <c r="Q83" s="21"/>
+      <c r="R83" s="21"/>
+      <c r="S83" s="21"/>
+      <c r="T83" s="21"/>
+      <c r="U83" s="21"/>
+      <c r="V83" s="21"/>
+      <c r="W83" s="21"/>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84" s="53" t="s">
+      <c r="A84" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B84" s="53"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="53"/>
-      <c r="E84" s="53"/>
-      <c r="F84" s="53"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="53"/>
-      <c r="K84" s="53"/>
-      <c r="L84" s="53"/>
-      <c r="M84" s="53"/>
-      <c r="N84" s="53"/>
-      <c r="O84" s="53"/>
-      <c r="P84" s="53"/>
-      <c r="Q84" s="53"/>
-      <c r="R84" s="53"/>
-      <c r="S84" s="53"/>
-      <c r="T84" s="53"/>
-      <c r="U84" s="53"/>
-      <c r="V84" s="53"/>
-      <c r="W84" s="53"/>
-    </row>
-    <row r="85" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="22"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="22"/>
+      <c r="S84" s="22"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="22"/>
+      <c r="V84" s="22"/>
+      <c r="W84" s="22"/>
+    </row>
+    <row r="85" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>1</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="64" t="s">
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="H85" s="64"/>
-      <c r="I85" s="64"/>
-      <c r="J85" s="64"/>
-      <c r="K85" s="64"/>
-      <c r="L85" s="64"/>
-      <c r="M85" s="64"/>
-      <c r="N85" s="64"/>
-      <c r="O85" s="64"/>
-      <c r="P85" s="64"/>
-      <c r="Q85" s="64"/>
-      <c r="R85" s="64"/>
-      <c r="S85" s="64"/>
-      <c r="T85" s="64"/>
-      <c r="U85" s="64"/>
-      <c r="V85" s="64"/>
-      <c r="W85" s="64"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
+      <c r="M85" s="23"/>
+      <c r="N85" s="23"/>
+      <c r="O85" s="23"/>
+      <c r="P85" s="23"/>
+      <c r="Q85" s="23"/>
+      <c r="R85" s="23"/>
+      <c r="S85" s="23"/>
+      <c r="T85" s="23"/>
+      <c r="U85" s="23"/>
+      <c r="V85" s="23"/>
+      <c r="W85" s="23"/>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
@@ -4263,31 +4325,31 @@
       <c r="B86" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="64" t="s">
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="H86" s="64"/>
-      <c r="I86" s="64"/>
-      <c r="J86" s="64"/>
-      <c r="K86" s="64"/>
-      <c r="L86" s="64"/>
-      <c r="M86" s="64"/>
-      <c r="N86" s="64"/>
-      <c r="O86" s="64"/>
-      <c r="P86" s="64"/>
-      <c r="Q86" s="64"/>
-      <c r="R86" s="64"/>
-      <c r="S86" s="64"/>
-      <c r="T86" s="64"/>
-      <c r="U86" s="64"/>
-      <c r="V86" s="64"/>
-      <c r="W86" s="64"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="23"/>
+      <c r="M86" s="23"/>
+      <c r="N86" s="23"/>
+      <c r="O86" s="23"/>
+      <c r="P86" s="23"/>
+      <c r="Q86" s="23"/>
+      <c r="R86" s="23"/>
+      <c r="S86" s="23"/>
+      <c r="T86" s="23"/>
+      <c r="U86" s="23"/>
+      <c r="V86" s="23"/>
+      <c r="W86" s="23"/>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="S87"/>
@@ -5494,15 +5556,206 @@
     </row>
   </sheetData>
   <mergeCells count="238">
-    <mergeCell ref="A78:W78"/>
-    <mergeCell ref="A79:W79"/>
-    <mergeCell ref="G80:W80"/>
-    <mergeCell ref="G81:W81"/>
-    <mergeCell ref="G82:W82"/>
-    <mergeCell ref="A83:W83"/>
-    <mergeCell ref="A84:W84"/>
-    <mergeCell ref="G85:W85"/>
-    <mergeCell ref="G86:W86"/>
+    <mergeCell ref="G75:S75"/>
+    <mergeCell ref="G74:S74"/>
+    <mergeCell ref="G73:S73"/>
+    <mergeCell ref="G72:S72"/>
+    <mergeCell ref="G71:S71"/>
+    <mergeCell ref="T70:W70"/>
+    <mergeCell ref="G70:S70"/>
+    <mergeCell ref="G69:S69"/>
+    <mergeCell ref="T69:W69"/>
+    <mergeCell ref="T71:W71"/>
+    <mergeCell ref="T72:W72"/>
+    <mergeCell ref="T73:W73"/>
+    <mergeCell ref="T74:W74"/>
+    <mergeCell ref="T75:W75"/>
+    <mergeCell ref="T65:W65"/>
+    <mergeCell ref="T61:W61"/>
+    <mergeCell ref="T60:W60"/>
+    <mergeCell ref="T59:W59"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="T63:W63"/>
+    <mergeCell ref="T52:W52"/>
+    <mergeCell ref="T58:W58"/>
+    <mergeCell ref="T57:W57"/>
+    <mergeCell ref="T55:W55"/>
+    <mergeCell ref="T53:W53"/>
+    <mergeCell ref="T56:W56"/>
+    <mergeCell ref="T54:W54"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="T34:W34"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="T51:W51"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="G34:S34"/>
+    <mergeCell ref="G35:S35"/>
+    <mergeCell ref="G36:S36"/>
+    <mergeCell ref="G41:S41"/>
+    <mergeCell ref="G42:S42"/>
+    <mergeCell ref="G59:S59"/>
+    <mergeCell ref="G55:S55"/>
+    <mergeCell ref="G56:S56"/>
+    <mergeCell ref="G37:S37"/>
+    <mergeCell ref="G38:S38"/>
+    <mergeCell ref="G39:S39"/>
+    <mergeCell ref="G40:S40"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G32:S32"/>
+    <mergeCell ref="G33:S33"/>
+    <mergeCell ref="G14:S14"/>
+    <mergeCell ref="G15:S15"/>
+    <mergeCell ref="G17:S17"/>
+    <mergeCell ref="G16:S16"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="G19:S19"/>
+    <mergeCell ref="G20:S20"/>
+    <mergeCell ref="G21:S21"/>
+    <mergeCell ref="G22:S22"/>
+    <mergeCell ref="G25:S25"/>
+    <mergeCell ref="G26:S26"/>
+    <mergeCell ref="G27:S27"/>
+    <mergeCell ref="G28:S28"/>
+    <mergeCell ref="G29:S29"/>
+    <mergeCell ref="G30:S30"/>
+    <mergeCell ref="G31:S31"/>
+    <mergeCell ref="G23:S23"/>
+    <mergeCell ref="G24:S24"/>
+    <mergeCell ref="G13:S13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:S7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G8:S8"/>
+    <mergeCell ref="G9:S9"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="G11:S11"/>
+    <mergeCell ref="G2:S2"/>
+    <mergeCell ref="G5:S5"/>
+    <mergeCell ref="G6:S6"/>
+    <mergeCell ref="G12:S12"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G46:S46"/>
+    <mergeCell ref="G47:S47"/>
+    <mergeCell ref="G57:S57"/>
+    <mergeCell ref="G58:S58"/>
+    <mergeCell ref="G45:S45"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="G54:S54"/>
+    <mergeCell ref="G48:S48"/>
+    <mergeCell ref="G49:S49"/>
+    <mergeCell ref="G50:S50"/>
+    <mergeCell ref="G52:S52"/>
+    <mergeCell ref="G53:S53"/>
+    <mergeCell ref="G51:S51"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="G66:S66"/>
+    <mergeCell ref="G67:S67"/>
+    <mergeCell ref="G65:S65"/>
+    <mergeCell ref="G43:S43"/>
+    <mergeCell ref="G44:S44"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="G60:S60"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="G61:S61"/>
+    <mergeCell ref="G62:S62"/>
+    <mergeCell ref="G63:S63"/>
+    <mergeCell ref="G76:S76"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="T76:W76"/>
+    <mergeCell ref="T77:W77"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="G77:S77"/>
+    <mergeCell ref="T49:W49"/>
+    <mergeCell ref="T50:W50"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="G68:S68"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="G64:S64"/>
+    <mergeCell ref="T66:W66"/>
+    <mergeCell ref="T67:W67"/>
+    <mergeCell ref="T68:W68"/>
+    <mergeCell ref="T64:W64"/>
+    <mergeCell ref="T62:W62"/>
     <mergeCell ref="T40:W40"/>
     <mergeCell ref="T35:W35"/>
     <mergeCell ref="T8:W8"/>
@@ -5527,211 +5780,20 @@
     <mergeCell ref="T20:W20"/>
     <mergeCell ref="T21:W21"/>
     <mergeCell ref="T22:W22"/>
-    <mergeCell ref="T76:W76"/>
-    <mergeCell ref="T77:W77"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="C72:F72"/>
-    <mergeCell ref="C73:F73"/>
-    <mergeCell ref="G77:S77"/>
-    <mergeCell ref="T49:W49"/>
-    <mergeCell ref="T50:W50"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="G66:S66"/>
-    <mergeCell ref="G67:S67"/>
-    <mergeCell ref="G65:S65"/>
-    <mergeCell ref="G43:S43"/>
-    <mergeCell ref="G44:S44"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="G60:S60"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="G61:S61"/>
-    <mergeCell ref="G62:S62"/>
-    <mergeCell ref="G63:S63"/>
+    <mergeCell ref="A78:W78"/>
+    <mergeCell ref="A79:W79"/>
+    <mergeCell ref="G80:W80"/>
+    <mergeCell ref="G81:W81"/>
+    <mergeCell ref="G82:W82"/>
+    <mergeCell ref="A83:W83"/>
+    <mergeCell ref="A84:W84"/>
+    <mergeCell ref="G85:W85"/>
+    <mergeCell ref="G86:W86"/>
     <mergeCell ref="C85:F85"/>
     <mergeCell ref="C86:F86"/>
-    <mergeCell ref="G76:S76"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="G68:S68"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="C75:F75"/>
     <mergeCell ref="C80:F80"/>
     <mergeCell ref="C81:F81"/>
     <mergeCell ref="C82:F82"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="G46:S46"/>
-    <mergeCell ref="G47:S47"/>
-    <mergeCell ref="G57:S57"/>
-    <mergeCell ref="G58:S58"/>
-    <mergeCell ref="G45:S45"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="G54:S54"/>
-    <mergeCell ref="G48:S48"/>
-    <mergeCell ref="G49:S49"/>
-    <mergeCell ref="G50:S50"/>
-    <mergeCell ref="G52:S52"/>
-    <mergeCell ref="G53:S53"/>
-    <mergeCell ref="G51:S51"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:S7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G8:S8"/>
-    <mergeCell ref="G9:S9"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="G11:S11"/>
-    <mergeCell ref="G2:S2"/>
-    <mergeCell ref="G5:S5"/>
-    <mergeCell ref="G6:S6"/>
-    <mergeCell ref="G12:S12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G32:S32"/>
-    <mergeCell ref="G33:S33"/>
-    <mergeCell ref="G14:S14"/>
-    <mergeCell ref="G15:S15"/>
-    <mergeCell ref="G17:S17"/>
-    <mergeCell ref="G16:S16"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="G19:S19"/>
-    <mergeCell ref="G20:S20"/>
-    <mergeCell ref="G21:S21"/>
-    <mergeCell ref="G22:S22"/>
-    <mergeCell ref="G25:S25"/>
-    <mergeCell ref="G26:S26"/>
-    <mergeCell ref="G27:S27"/>
-    <mergeCell ref="G28:S28"/>
-    <mergeCell ref="G29:S29"/>
-    <mergeCell ref="G30:S30"/>
-    <mergeCell ref="G31:S31"/>
-    <mergeCell ref="G23:S23"/>
-    <mergeCell ref="G24:S24"/>
-    <mergeCell ref="G13:S13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G64:S64"/>
-    <mergeCell ref="G34:S34"/>
-    <mergeCell ref="G35:S35"/>
-    <mergeCell ref="G36:S36"/>
-    <mergeCell ref="G41:S41"/>
-    <mergeCell ref="G42:S42"/>
-    <mergeCell ref="G59:S59"/>
-    <mergeCell ref="G55:S55"/>
-    <mergeCell ref="G56:S56"/>
-    <mergeCell ref="G37:S37"/>
-    <mergeCell ref="G38:S38"/>
-    <mergeCell ref="G39:S39"/>
-    <mergeCell ref="G40:S40"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="T34:W34"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="T51:W51"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="T44:W44"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="T66:W66"/>
-    <mergeCell ref="T67:W67"/>
-    <mergeCell ref="T68:W68"/>
-    <mergeCell ref="T64:W64"/>
-    <mergeCell ref="T62:W62"/>
-    <mergeCell ref="T65:W65"/>
-    <mergeCell ref="T61:W61"/>
-    <mergeCell ref="T60:W60"/>
-    <mergeCell ref="T59:W59"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="A4:W4"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="T63:W63"/>
-    <mergeCell ref="T52:W52"/>
-    <mergeCell ref="T58:W58"/>
-    <mergeCell ref="T57:W57"/>
-    <mergeCell ref="T55:W55"/>
-    <mergeCell ref="T53:W53"/>
-    <mergeCell ref="T56:W56"/>
-    <mergeCell ref="T54:W54"/>
-    <mergeCell ref="G75:S75"/>
-    <mergeCell ref="G74:S74"/>
-    <mergeCell ref="G73:S73"/>
-    <mergeCell ref="G72:S72"/>
-    <mergeCell ref="G71:S71"/>
-    <mergeCell ref="T70:W70"/>
-    <mergeCell ref="G70:S70"/>
-    <mergeCell ref="G69:S69"/>
-    <mergeCell ref="T69:W69"/>
-    <mergeCell ref="T71:W71"/>
-    <mergeCell ref="T72:W72"/>
-    <mergeCell ref="T73:W73"/>
-    <mergeCell ref="T74:W74"/>
-    <mergeCell ref="T75:W75"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nv_hso.xlsx
+++ b/nv_hso.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VoVanLinhTinh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56626753-49C5-44B9-9DD3-D44C4AA43FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF134298-0A4D-411C-A1F9-1DC6B5455453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="219">
   <si>
     <t>Khởi Hành</t>
   </si>
@@ -670,6 +670,33 @@
   </si>
   <si>
     <t>Vịnh caribe - Lv 100</t>
+  </si>
+  <si>
+    <t>Chế tạo vũ khí mới</t>
+  </si>
+  <si>
+    <t>Thu thập 200 khúc gỗ từ cây ma ở rừng quái vật.</t>
+  </si>
+  <si>
+    <t>Rừng quái vật - Lv 103</t>
+  </si>
+  <si>
+    <t>Thu thập vật liệu</t>
+  </si>
+  <si>
+    <t>Nhặt 200 phân dơi khi đánh những con dơi mắt lồi ở rừng hoa đỏ.</t>
+  </si>
+  <si>
+    <t>Rừng hoa đỏ - Lv 109</t>
+  </si>
+  <si>
+    <t>Tiến vào mê cung</t>
+  </si>
+  <si>
+    <t>Tiêu diệt những con chuột hang ở mê cung để thu thập 200 bộ lông chuột.</t>
+  </si>
+  <si>
+    <t>Mê cung - Lv</t>
   </si>
 </sst>
 </file>
@@ -991,7 +1018,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1024,6 +1051,84 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1042,60 +1147,12 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1105,50 +1162,68 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1159,6 +1234,15 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1167,54 +1251,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1503,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W487"/>
+  <dimension ref="A1:W492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G47" sqref="B47:S47"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74:F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1545,85 +1581,85 @@
       <c r="B2" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="48" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="64" t="s">
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
     </row>
     <row r="3" spans="1:23" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="63"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="69"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -1632,31 +1668,31 @@
       <c r="B5" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="51" t="s">
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="30"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="18"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1665,33 +1701,33 @@
       <c r="B6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="45" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="24" t="s">
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1700,31 +1736,31 @@
       <c r="B7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="45" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="30"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="18"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1733,33 +1769,33 @@
       <c r="B8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="45" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="24" t="s">
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1768,33 +1804,33 @@
       <c r="B9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="45" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="25" t="s">
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="27"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="34"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1803,33 +1839,33 @@
       <c r="B10" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="45" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="25" t="s">
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="27"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="34"/>
     </row>
     <row r="11" spans="1:23" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1838,68 +1874,68 @@
       <c r="B11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="25" t="s">
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="27"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="34"/>
     </row>
     <row r="12" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="71" t="s">
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="65" t="s">
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="67"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="37"/>
     </row>
     <row r="13" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1908,33 +1944,33 @@
       <c r="B13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="25" t="s">
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="27"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="34"/>
     </row>
     <row r="14" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1943,33 +1979,33 @@
       <c r="B14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="25" t="s">
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="27"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="34"/>
     </row>
     <row r="15" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1978,68 +2014,68 @@
       <c r="B15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="25" t="s">
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="27"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="34"/>
     </row>
     <row r="16" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="71" t="s">
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="75"/>
-      <c r="T16" s="65" t="s">
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="67"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="37"/>
     </row>
     <row r="17" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -2048,31 +2084,31 @@
       <c r="B17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="42" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="27"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="34"/>
     </row>
     <row r="18" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -2081,33 +2117,33 @@
       <c r="B18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="25" t="s">
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="27"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="34"/>
     </row>
     <row r="19" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -2116,33 +2152,33 @@
       <c r="B19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="42" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="25" t="s">
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="27"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="34"/>
     </row>
     <row r="20" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -2151,68 +2187,68 @@
       <c r="B20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="25" t="s">
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="27"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="34"/>
     </row>
     <row r="21" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="71" t="s">
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="75"/>
-      <c r="T21" s="65" t="s">
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="67"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="37"/>
     </row>
     <row r="22" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -2221,33 +2257,33 @@
       <c r="B22" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="25" t="s">
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="27"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="34"/>
     </row>
     <row r="23" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -2256,31 +2292,31 @@
       <c r="B23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="30"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="18"/>
     </row>
     <row r="24" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -2289,33 +2325,33 @@
       <c r="B24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="25" t="s">
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="27"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="34"/>
     </row>
     <row r="25" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -2324,33 +2360,33 @@
       <c r="B25" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="25" t="s">
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="27"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="34"/>
     </row>
     <row r="26" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -2359,33 +2395,33 @@
       <c r="B26" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="25" t="s">
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="27"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="34"/>
     </row>
     <row r="27" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -2394,31 +2430,31 @@
       <c r="B27" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36" t="s">
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="30"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="18"/>
     </row>
     <row r="28" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
@@ -2427,33 +2463,33 @@
       <c r="B28" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36" t="s">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="25" t="s">
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="27"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="34"/>
     </row>
     <row r="29" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -2462,68 +2498,68 @@
       <c r="B29" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36" t="s">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="25" t="s">
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="27"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="34"/>
     </row>
     <row r="30" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>26</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="71" t="s">
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="74"/>
-      <c r="S30" s="75"/>
-      <c r="T30" s="65" t="s">
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="67"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="37"/>
     </row>
     <row r="31" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
@@ -2532,31 +2568,31 @@
       <c r="B31" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36" t="s">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="59"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="76"/>
+      <c r="U31" s="77"/>
+      <c r="V31" s="77"/>
+      <c r="W31" s="78"/>
     </row>
     <row r="32" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
@@ -2565,33 +2601,33 @@
       <c r="B32" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36" t="s">
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="24" t="s">
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
     </row>
     <row r="33" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
@@ -2600,33 +2636,33 @@
       <c r="B33" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36" t="s">
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="25" t="s">
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="27"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="34"/>
     </row>
     <row r="34" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -2635,66 +2671,66 @@
       <c r="B34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36" t="s">
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="30"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="18"/>
     </row>
     <row r="35" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>31</v>
       </c>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71" t="s">
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="74"/>
-      <c r="S35" s="75"/>
-      <c r="T35" s="68" t="s">
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="73"/>
+      <c r="W35" s="73"/>
     </row>
     <row r="36" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
@@ -2703,33 +2739,33 @@
       <c r="B36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36" t="s">
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="24" t="s">
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="45"/>
     </row>
     <row r="37" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
@@ -2738,33 +2774,33 @@
       <c r="B37" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="36" t="s">
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="24" t="s">
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="45"/>
     </row>
     <row r="38" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
@@ -2773,31 +2809,31 @@
       <c r="B38" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36" t="s">
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="30"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="18"/>
     </row>
     <row r="39" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
@@ -2806,33 +2842,33 @@
       <c r="B39" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="36" t="s">
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="24" t="s">
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
     </row>
     <row r="40" spans="1:23" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
@@ -2841,33 +2877,33 @@
       <c r="B40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="36" t="s">
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="24" t="s">
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
-      <c r="W40" s="24"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
     </row>
     <row r="41" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
@@ -2876,33 +2912,33 @@
       <c r="B41" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36" t="s">
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="24" t="s">
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="U41" s="24"/>
-      <c r="V41" s="24"/>
-      <c r="W41" s="24"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="45"/>
     </row>
     <row r="42" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
@@ -2911,68 +2947,68 @@
       <c r="B42" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="36" t="s">
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="24" t="s">
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="U42" s="24"/>
-      <c r="V42" s="24"/>
-      <c r="W42" s="24"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="45"/>
     </row>
     <row r="43" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>39</v>
       </c>
-      <c r="B43" s="69" t="s">
+      <c r="B43" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="70" t="s">
+      <c r="C43" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="71" t="s">
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="74"/>
-      <c r="O43" s="74"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="74"/>
-      <c r="R43" s="74"/>
-      <c r="S43" s="75"/>
-      <c r="T43" s="65" t="s">
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="50"/>
+      <c r="S43" s="51"/>
+      <c r="T43" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="U43" s="66"/>
-      <c r="V43" s="66"/>
-      <c r="W43" s="67"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="37"/>
     </row>
     <row r="44" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
@@ -2981,33 +3017,33 @@
       <c r="B44" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36" t="s">
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="24" t="s">
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="47"/>
+      <c r="R44" s="47"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="U44" s="24"/>
-      <c r="V44" s="24"/>
-      <c r="W44" s="24"/>
+      <c r="U44" s="45"/>
+      <c r="V44" s="45"/>
+      <c r="W44" s="45"/>
     </row>
     <row r="45" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
@@ -3016,33 +3052,33 @@
       <c r="B45" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="36" t="s">
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="38"/>
-      <c r="T45" s="24" t="s">
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="48"/>
+      <c r="T45" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="U45" s="24"/>
-      <c r="V45" s="24"/>
-      <c r="W45" s="24"/>
+      <c r="U45" s="45"/>
+      <c r="V45" s="45"/>
+      <c r="W45" s="45"/>
     </row>
     <row r="46" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
@@ -3051,66 +3087,66 @@
       <c r="B46" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="36" t="s">
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
-      <c r="S46" s="38"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="30"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="47"/>
+      <c r="R46" s="47"/>
+      <c r="S46" s="48"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="18"/>
     </row>
     <row r="47" spans="1:23" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>43</v>
       </c>
-      <c r="B47" s="69" t="s">
+      <c r="B47" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="70" t="s">
+      <c r="C47" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="71" t="s">
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="74"/>
-      <c r="P47" s="74"/>
-      <c r="Q47" s="74"/>
-      <c r="R47" s="74"/>
-      <c r="S47" s="75"/>
-      <c r="T47" s="65" t="s">
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="50"/>
+      <c r="P47" s="50"/>
+      <c r="Q47" s="50"/>
+      <c r="R47" s="50"/>
+      <c r="S47" s="51"/>
+      <c r="T47" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="U47" s="66"/>
-      <c r="V47" s="66"/>
-      <c r="W47" s="67"/>
+      <c r="U47" s="36"/>
+      <c r="V47" s="36"/>
+      <c r="W47" s="37"/>
     </row>
     <row r="48" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
@@ -3119,33 +3155,33 @@
       <c r="B48" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="36" t="s">
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="25" t="s">
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
+      <c r="S48" s="48"/>
+      <c r="T48" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="U48" s="26"/>
-      <c r="V48" s="26"/>
-      <c r="W48" s="27"/>
+      <c r="U48" s="33"/>
+      <c r="V48" s="33"/>
+      <c r="W48" s="34"/>
     </row>
     <row r="49" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
@@ -3154,33 +3190,33 @@
       <c r="B49" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="36" t="s">
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="24" t="s">
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="47"/>
+      <c r="R49" s="47"/>
+      <c r="S49" s="48"/>
+      <c r="T49" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="U49" s="24"/>
-      <c r="V49" s="24"/>
-      <c r="W49" s="24"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
     </row>
     <row r="50" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
@@ -3189,33 +3225,33 @@
       <c r="B50" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="C50" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="42" t="s">
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="42"/>
-      <c r="P50" s="42"/>
-      <c r="Q50" s="42"/>
-      <c r="R50" s="42"/>
-      <c r="S50" s="42"/>
-      <c r="T50" s="25" t="s">
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="53"/>
+      <c r="R50" s="53"/>
+      <c r="S50" s="53"/>
+      <c r="T50" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="U50" s="26"/>
-      <c r="V50" s="26"/>
-      <c r="W50" s="27"/>
+      <c r="U50" s="33"/>
+      <c r="V50" s="33"/>
+      <c r="W50" s="34"/>
     </row>
     <row r="51" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
@@ -3224,33 +3260,33 @@
       <c r="B51" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="42" t="s">
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="42"/>
-      <c r="P51" s="42"/>
-      <c r="Q51" s="42"/>
-      <c r="R51" s="42"/>
-      <c r="S51" s="42"/>
-      <c r="T51" s="60" t="s">
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="53"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="53"/>
+      <c r="Q51" s="53"/>
+      <c r="R51" s="53"/>
+      <c r="S51" s="53"/>
+      <c r="T51" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="U51" s="24"/>
-      <c r="V51" s="24"/>
-      <c r="W51" s="24"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
     </row>
     <row r="52" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
@@ -3259,33 +3295,33 @@
       <c r="B52" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="36" t="s">
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="38"/>
-      <c r="T52" s="24" t="s">
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="47"/>
+      <c r="R52" s="47"/>
+      <c r="S52" s="48"/>
+      <c r="T52" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="U52" s="24"/>
-      <c r="V52" s="24"/>
-      <c r="W52" s="24"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
     </row>
     <row r="53" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
@@ -3294,33 +3330,33 @@
       <c r="B53" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="36" t="s">
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="38"/>
-      <c r="T53" s="24" t="s">
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="47"/>
+      <c r="R53" s="47"/>
+      <c r="S53" s="48"/>
+      <c r="T53" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="U53" s="24"/>
-      <c r="V53" s="24"/>
-      <c r="W53" s="24"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
     </row>
     <row r="54" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
@@ -3329,31 +3365,31 @@
       <c r="B54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="36" t="s">
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="38"/>
-      <c r="T54" s="28"/>
-      <c r="U54" s="29"/>
-      <c r="V54" s="29"/>
-      <c r="W54" s="30"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="47"/>
+      <c r="R54" s="47"/>
+      <c r="S54" s="48"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="18"/>
     </row>
     <row r="55" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
@@ -3362,33 +3398,33 @@
       <c r="B55" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="54" t="s">
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="H55" s="55"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="55"/>
-      <c r="M55" s="55"/>
-      <c r="N55" s="55"/>
-      <c r="O55" s="55"/>
-      <c r="P55" s="55"/>
-      <c r="Q55" s="55"/>
-      <c r="R55" s="55"/>
-      <c r="S55" s="56"/>
-      <c r="T55" s="24" t="s">
+      <c r="H55" s="71"/>
+      <c r="I55" s="71"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="71"/>
+      <c r="L55" s="71"/>
+      <c r="M55" s="71"/>
+      <c r="N55" s="71"/>
+      <c r="O55" s="71"/>
+      <c r="P55" s="71"/>
+      <c r="Q55" s="71"/>
+      <c r="R55" s="71"/>
+      <c r="S55" s="72"/>
+      <c r="T55" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="U55" s="24"/>
-      <c r="V55" s="24"/>
-      <c r="W55" s="24"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
     </row>
     <row r="56" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
@@ -3397,31 +3433,31 @@
       <c r="B56" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="C56" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="54" t="s">
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="55"/>
-      <c r="M56" s="55"/>
-      <c r="N56" s="55"/>
-      <c r="O56" s="55"/>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="55"/>
-      <c r="R56" s="55"/>
-      <c r="S56" s="56"/>
-      <c r="T56" s="28"/>
-      <c r="U56" s="29"/>
-      <c r="V56" s="29"/>
-      <c r="W56" s="30"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="71"/>
+      <c r="M56" s="71"/>
+      <c r="N56" s="71"/>
+      <c r="O56" s="71"/>
+      <c r="P56" s="71"/>
+      <c r="Q56" s="71"/>
+      <c r="R56" s="71"/>
+      <c r="S56" s="72"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="17"/>
+      <c r="W56" s="18"/>
     </row>
     <row r="57" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
@@ -3430,33 +3466,33 @@
       <c r="B57" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C57" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="36" t="s">
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="37"/>
-      <c r="S57" s="38"/>
-      <c r="T57" s="25" t="s">
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="47"/>
+      <c r="O57" s="47"/>
+      <c r="P57" s="47"/>
+      <c r="Q57" s="47"/>
+      <c r="R57" s="47"/>
+      <c r="S57" s="48"/>
+      <c r="T57" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="U57" s="26"/>
-      <c r="V57" s="26"/>
-      <c r="W57" s="27"/>
+      <c r="U57" s="33"/>
+      <c r="V57" s="33"/>
+      <c r="W57" s="34"/>
     </row>
     <row r="58" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -3465,33 +3501,33 @@
       <c r="B58" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="36" t="s">
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
-      <c r="S58" s="38"/>
-      <c r="T58" s="60" t="s">
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="47"/>
+      <c r="P58" s="47"/>
+      <c r="Q58" s="47"/>
+      <c r="R58" s="47"/>
+      <c r="S58" s="48"/>
+      <c r="T58" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="U58" s="24"/>
-      <c r="V58" s="24"/>
-      <c r="W58" s="24"/>
+      <c r="U58" s="45"/>
+      <c r="V58" s="45"/>
+      <c r="W58" s="45"/>
     </row>
     <row r="59" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -3500,33 +3536,33 @@
       <c r="B59" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C59" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="36" t="s">
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37"/>
-      <c r="S59" s="38"/>
-      <c r="T59" s="24" t="s">
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="47"/>
+      <c r="P59" s="47"/>
+      <c r="Q59" s="47"/>
+      <c r="R59" s="47"/>
+      <c r="S59" s="48"/>
+      <c r="T59" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="U59" s="24"/>
-      <c r="V59" s="24"/>
-      <c r="W59" s="24"/>
+      <c r="U59" s="45"/>
+      <c r="V59" s="45"/>
+      <c r="W59" s="45"/>
     </row>
     <row r="60" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
@@ -3535,33 +3571,33 @@
       <c r="B60" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="36" t="s">
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
-      <c r="S60" s="38"/>
-      <c r="T60" s="24" t="s">
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="47"/>
+      <c r="O60" s="47"/>
+      <c r="P60" s="47"/>
+      <c r="Q60" s="47"/>
+      <c r="R60" s="47"/>
+      <c r="S60" s="48"/>
+      <c r="T60" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="U60" s="24"/>
-      <c r="V60" s="24"/>
-      <c r="W60" s="24"/>
+      <c r="U60" s="45"/>
+      <c r="V60" s="45"/>
+      <c r="W60" s="45"/>
     </row>
     <row r="61" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
@@ -3570,31 +3606,31 @@
       <c r="B61" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="36" t="s">
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="37"/>
-      <c r="S61" s="38"/>
-      <c r="T61" s="28"/>
-      <c r="U61" s="29"/>
-      <c r="V61" s="29"/>
-      <c r="W61" s="30"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="47"/>
+      <c r="N61" s="47"/>
+      <c r="O61" s="47"/>
+      <c r="P61" s="47"/>
+      <c r="Q61" s="47"/>
+      <c r="R61" s="47"/>
+      <c r="S61" s="48"/>
+      <c r="T61" s="16"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="17"/>
+      <c r="W61" s="18"/>
     </row>
     <row r="62" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
@@ -3603,33 +3639,33 @@
       <c r="B62" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="32" t="s">
+      <c r="C62" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="36" t="s">
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
-      <c r="S62" s="38"/>
-      <c r="T62" s="24" t="s">
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="47"/>
+      <c r="N62" s="47"/>
+      <c r="O62" s="47"/>
+      <c r="P62" s="47"/>
+      <c r="Q62" s="47"/>
+      <c r="R62" s="47"/>
+      <c r="S62" s="48"/>
+      <c r="T62" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="U62" s="24"/>
-      <c r="V62" s="24"/>
-      <c r="W62" s="24"/>
+      <c r="U62" s="45"/>
+      <c r="V62" s="45"/>
+      <c r="W62" s="45"/>
     </row>
     <row r="63" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
@@ -3638,31 +3674,31 @@
       <c r="B63" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C63" s="32" t="s">
+      <c r="C63" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="36" t="s">
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="37"/>
-      <c r="S63" s="38"/>
-      <c r="T63" s="28"/>
-      <c r="U63" s="29"/>
-      <c r="V63" s="29"/>
-      <c r="W63" s="30"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="47"/>
+      <c r="M63" s="47"/>
+      <c r="N63" s="47"/>
+      <c r="O63" s="47"/>
+      <c r="P63" s="47"/>
+      <c r="Q63" s="47"/>
+      <c r="R63" s="47"/>
+      <c r="S63" s="48"/>
+      <c r="T63" s="16"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="17"/>
+      <c r="W63" s="18"/>
     </row>
     <row r="64" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
@@ -3671,33 +3707,33 @@
       <c r="B64" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="C64" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="36" t="s">
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
-      <c r="S64" s="38"/>
-      <c r="T64" s="24" t="s">
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="47"/>
+      <c r="M64" s="47"/>
+      <c r="N64" s="47"/>
+      <c r="O64" s="47"/>
+      <c r="P64" s="47"/>
+      <c r="Q64" s="47"/>
+      <c r="R64" s="47"/>
+      <c r="S64" s="48"/>
+      <c r="T64" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="U64" s="24"/>
-      <c r="V64" s="24"/>
-      <c r="W64" s="24"/>
+      <c r="U64" s="45"/>
+      <c r="V64" s="45"/>
+      <c r="W64" s="45"/>
     </row>
     <row r="65" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
@@ -3706,31 +3742,31 @@
       <c r="B65" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C65" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="36" t="s">
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="38"/>
-      <c r="T65" s="28"/>
-      <c r="U65" s="29"/>
-      <c r="V65" s="29"/>
-      <c r="W65" s="30"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
+      <c r="M65" s="47"/>
+      <c r="N65" s="47"/>
+      <c r="O65" s="47"/>
+      <c r="P65" s="47"/>
+      <c r="Q65" s="47"/>
+      <c r="R65" s="47"/>
+      <c r="S65" s="48"/>
+      <c r="T65" s="16"/>
+      <c r="U65" s="17"/>
+      <c r="V65" s="17"/>
+      <c r="W65" s="18"/>
     </row>
     <row r="66" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
@@ -3739,33 +3775,33 @@
       <c r="B66" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="C66" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="36" t="s">
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="37"/>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="37"/>
-      <c r="S66" s="38"/>
-      <c r="T66" s="24" t="s">
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="47"/>
+      <c r="M66" s="47"/>
+      <c r="N66" s="47"/>
+      <c r="O66" s="47"/>
+      <c r="P66" s="47"/>
+      <c r="Q66" s="47"/>
+      <c r="R66" s="47"/>
+      <c r="S66" s="48"/>
+      <c r="T66" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="U66" s="24"/>
-      <c r="V66" s="24"/>
-      <c r="W66" s="24"/>
+      <c r="U66" s="45"/>
+      <c r="V66" s="45"/>
+      <c r="W66" s="45"/>
     </row>
     <row r="67" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
@@ -3774,33 +3810,33 @@
       <c r="B67" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C67" s="32" t="s">
+      <c r="C67" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="36" t="s">
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37"/>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37"/>
-      <c r="S67" s="38"/>
-      <c r="T67" s="24" t="s">
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
+      <c r="M67" s="47"/>
+      <c r="N67" s="47"/>
+      <c r="O67" s="47"/>
+      <c r="P67" s="47"/>
+      <c r="Q67" s="47"/>
+      <c r="R67" s="47"/>
+      <c r="S67" s="48"/>
+      <c r="T67" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="U67" s="24"/>
-      <c r="V67" s="24"/>
-      <c r="W67" s="24"/>
+      <c r="U67" s="45"/>
+      <c r="V67" s="45"/>
+      <c r="W67" s="45"/>
     </row>
     <row r="68" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
@@ -3809,562 +3845,706 @@
       <c r="B68" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C68" s="32" t="s">
+      <c r="C68" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="36" t="s">
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="37"/>
-      <c r="S68" s="38"/>
-      <c r="T68" s="24" t="s">
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="47"/>
+      <c r="O68" s="47"/>
+      <c r="P68" s="47"/>
+      <c r="Q68" s="47"/>
+      <c r="R68" s="47"/>
+      <c r="S68" s="48"/>
+      <c r="T68" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="U68" s="24"/>
-      <c r="V68" s="24"/>
-      <c r="W68" s="24"/>
+      <c r="U68" s="45"/>
+      <c r="V68" s="45"/>
+      <c r="W68" s="45"/>
     </row>
     <row r="69" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
+      <c r="A69" s="3">
         <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="32" t="s">
+      <c r="C69" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="36" t="s">
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="37"/>
-      <c r="S69" s="38"/>
-      <c r="T69" s="25" t="s">
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="47"/>
+      <c r="O69" s="47"/>
+      <c r="P69" s="47"/>
+      <c r="Q69" s="47"/>
+      <c r="R69" s="47"/>
+      <c r="S69" s="48"/>
+      <c r="T69" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="U69" s="26"/>
-      <c r="V69" s="26"/>
-      <c r="W69" s="27"/>
+      <c r="U69" s="33"/>
+      <c r="V69" s="33"/>
+      <c r="W69" s="34"/>
     </row>
     <row r="70" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7">
+      <c r="A70" s="3">
         <v>66</v>
       </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="37"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="37"/>
-      <c r="S70" s="38"/>
-      <c r="T70" s="28"/>
-      <c r="U70" s="29"/>
-      <c r="V70" s="29"/>
-      <c r="W70" s="30"/>
+      <c r="B70" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="H70" s="47"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="47"/>
+      <c r="N70" s="47"/>
+      <c r="O70" s="47"/>
+      <c r="P70" s="47"/>
+      <c r="Q70" s="47"/>
+      <c r="R70" s="47"/>
+      <c r="S70" s="48"/>
+      <c r="T70" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="U70" s="33"/>
+      <c r="V70" s="33"/>
+      <c r="W70" s="34"/>
     </row>
     <row r="71" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7">
+      <c r="A71" s="3">
         <v>67</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="37"/>
-      <c r="O71" s="37"/>
-      <c r="P71" s="37"/>
-      <c r="Q71" s="37"/>
-      <c r="R71" s="37"/>
-      <c r="S71" s="38"/>
-      <c r="T71" s="31"/>
-      <c r="U71" s="31"/>
-      <c r="V71" s="31"/>
-      <c r="W71" s="31"/>
+      <c r="B71" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="47"/>
+      <c r="P71" s="47"/>
+      <c r="Q71" s="47"/>
+      <c r="R71" s="47"/>
+      <c r="S71" s="48"/>
+      <c r="T71" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="U71" s="45"/>
+      <c r="V71" s="45"/>
+      <c r="W71" s="45"/>
     </row>
     <row r="72" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>68</v>
       </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="37"/>
-      <c r="O72" s="37"/>
-      <c r="P72" s="37"/>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="37"/>
-      <c r="S72" s="38"/>
-      <c r="T72" s="31"/>
-      <c r="U72" s="31"/>
-      <c r="V72" s="31"/>
-      <c r="W72" s="31"/>
+      <c r="B72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="47"/>
+      <c r="O72" s="47"/>
+      <c r="P72" s="47"/>
+      <c r="Q72" s="47"/>
+      <c r="R72" s="47"/>
+      <c r="S72" s="48"/>
+      <c r="T72" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="U72" s="45"/>
+      <c r="V72" s="45"/>
+      <c r="W72" s="45"/>
     </row>
     <row r="73" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>69</v>
       </c>
       <c r="B73" s="1"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="37"/>
-      <c r="O73" s="37"/>
-      <c r="P73" s="37"/>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="37"/>
-      <c r="S73" s="38"/>
-      <c r="T73" s="31"/>
-      <c r="U73" s="31"/>
-      <c r="V73" s="31"/>
-      <c r="W73" s="31"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="47"/>
+      <c r="M73" s="47"/>
+      <c r="N73" s="47"/>
+      <c r="O73" s="47"/>
+      <c r="P73" s="47"/>
+      <c r="Q73" s="47"/>
+      <c r="R73" s="47"/>
+      <c r="S73" s="48"/>
+      <c r="T73" s="44"/>
+      <c r="U73" s="44"/>
+      <c r="V73" s="44"/>
+      <c r="W73" s="44"/>
     </row>
     <row r="74" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>70</v>
       </c>
       <c r="B74" s="1"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="37"/>
-      <c r="N74" s="37"/>
-      <c r="O74" s="37"/>
-      <c r="P74" s="37"/>
-      <c r="Q74" s="37"/>
-      <c r="R74" s="37"/>
-      <c r="S74" s="38"/>
-      <c r="T74" s="31"/>
-      <c r="U74" s="31"/>
-      <c r="V74" s="31"/>
-      <c r="W74" s="31"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="47"/>
+      <c r="M74" s="47"/>
+      <c r="N74" s="47"/>
+      <c r="O74" s="47"/>
+      <c r="P74" s="47"/>
+      <c r="Q74" s="47"/>
+      <c r="R74" s="47"/>
+      <c r="S74" s="48"/>
+      <c r="T74" s="44"/>
+      <c r="U74" s="44"/>
+      <c r="V74" s="44"/>
+      <c r="W74" s="44"/>
     </row>
     <row r="75" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
+      <c r="A75" s="7">
+        <v>71</v>
+      </c>
       <c r="B75" s="1"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="37"/>
-      <c r="K75" s="37"/>
-      <c r="L75" s="37"/>
-      <c r="M75" s="37"/>
-      <c r="N75" s="37"/>
-      <c r="O75" s="37"/>
-      <c r="P75" s="37"/>
-      <c r="Q75" s="37"/>
-      <c r="R75" s="37"/>
-      <c r="S75" s="38"/>
-      <c r="T75" s="31"/>
-      <c r="U75" s="31"/>
-      <c r="V75" s="31"/>
-      <c r="W75" s="31"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
+      <c r="R75" s="14"/>
+      <c r="S75" s="15"/>
+      <c r="T75" s="16"/>
+      <c r="U75" s="17"/>
+      <c r="V75" s="17"/>
+      <c r="W75" s="18"/>
     </row>
     <row r="76" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
+      <c r="A76" s="7">
+        <v>72</v>
+      </c>
       <c r="B76" s="1"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="37"/>
-      <c r="O76" s="37"/>
-      <c r="P76" s="37"/>
-      <c r="Q76" s="37"/>
-      <c r="R76" s="37"/>
-      <c r="S76" s="38"/>
-      <c r="T76" s="31"/>
-      <c r="U76" s="31"/>
-      <c r="V76" s="31"/>
-      <c r="W76" s="31"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
+      <c r="R76" s="14"/>
+      <c r="S76" s="15"/>
+      <c r="T76" s="16"/>
+      <c r="U76" s="17"/>
+      <c r="V76" s="17"/>
+      <c r="W76" s="18"/>
     </row>
     <row r="77" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
+      <c r="A77" s="7">
+        <v>73</v>
+      </c>
       <c r="B77" s="1"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="29"/>
-      <c r="N77" s="29"/>
-      <c r="O77" s="29"/>
-      <c r="P77" s="29"/>
-      <c r="Q77" s="29"/>
-      <c r="R77" s="29"/>
-      <c r="S77" s="30"/>
-      <c r="T77" s="31"/>
-      <c r="U77" s="31"/>
-      <c r="V77" s="31"/>
-      <c r="W77" s="31"/>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="14"/>
+      <c r="R77" s="14"/>
+      <c r="S77" s="15"/>
+      <c r="T77" s="16"/>
+      <c r="U77" s="17"/>
+      <c r="V77" s="17"/>
+      <c r="W77" s="18"/>
+    </row>
+    <row r="78" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>74</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="31"/>
       <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
-      <c r="R78" s="13"/>
-      <c r="S78" s="13"/>
-      <c r="T78" s="13"/>
-      <c r="U78" s="13"/>
-      <c r="V78" s="13"/>
-      <c r="W78" s="14"/>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A79" s="15" t="s">
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="14"/>
+      <c r="Q78" s="14"/>
+      <c r="R78" s="14"/>
+      <c r="S78" s="15"/>
+      <c r="T78" s="16"/>
+      <c r="U78" s="17"/>
+      <c r="V78" s="17"/>
+      <c r="W78" s="18"/>
+    </row>
+    <row r="79" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>75</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="14"/>
+      <c r="Q79" s="14"/>
+      <c r="R79" s="14"/>
+      <c r="S79" s="15"/>
+      <c r="T79" s="16"/>
+      <c r="U79" s="17"/>
+      <c r="V79" s="17"/>
+      <c r="W79" s="18"/>
+    </row>
+    <row r="80" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="47"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="47"/>
+      <c r="M80" s="47"/>
+      <c r="N80" s="47"/>
+      <c r="O80" s="47"/>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="47"/>
+      <c r="R80" s="47"/>
+      <c r="S80" s="48"/>
+      <c r="T80" s="44"/>
+      <c r="U80" s="44"/>
+      <c r="V80" s="44"/>
+      <c r="W80" s="44"/>
+    </row>
+    <row r="81" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="47"/>
+      <c r="K81" s="47"/>
+      <c r="L81" s="47"/>
+      <c r="M81" s="47"/>
+      <c r="N81" s="47"/>
+      <c r="O81" s="47"/>
+      <c r="P81" s="47"/>
+      <c r="Q81" s="47"/>
+      <c r="R81" s="47"/>
+      <c r="S81" s="48"/>
+      <c r="T81" s="44"/>
+      <c r="U81" s="44"/>
+      <c r="V81" s="44"/>
+      <c r="W81" s="44"/>
+    </row>
+    <row r="82" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="18"/>
+      <c r="T82" s="44"/>
+      <c r="U82" s="44"/>
+      <c r="V82" s="44"/>
+      <c r="W82" s="44"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A83" s="38"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="39"/>
+      <c r="M83" s="39"/>
+      <c r="N83" s="39"/>
+      <c r="O83" s="39"/>
+      <c r="P83" s="39"/>
+      <c r="Q83" s="39"/>
+      <c r="R83" s="39"/>
+      <c r="S83" s="39"/>
+      <c r="T83" s="39"/>
+      <c r="U83" s="39"/>
+      <c r="V83" s="39"/>
+      <c r="W83" s="40"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="16"/>
-      <c r="N79" s="16"/>
-      <c r="O79" s="16"/>
-      <c r="P79" s="16"/>
-      <c r="Q79" s="16"/>
-      <c r="R79" s="16"/>
-      <c r="S79" s="16"/>
-      <c r="T79" s="16"/>
-      <c r="U79" s="16"/>
-      <c r="V79" s="16"/>
-      <c r="W79" s="17"/>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A80" s="8">
+      <c r="B84" s="42"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="42"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="42"/>
+      <c r="N84" s="42"/>
+      <c r="O84" s="42"/>
+      <c r="P84" s="42"/>
+      <c r="Q84" s="42"/>
+      <c r="R84" s="42"/>
+      <c r="S84" s="42"/>
+      <c r="T84" s="42"/>
+      <c r="U84" s="42"/>
+      <c r="V84" s="42"/>
+      <c r="W84" s="43"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
         <v>1</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B85" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C80" s="39" t="s">
+      <c r="C85" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D80" s="40"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="18" t="s">
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
-      <c r="M80" s="19"/>
-      <c r="N80" s="19"/>
-      <c r="O80" s="19"/>
-      <c r="P80" s="19"/>
-      <c r="Q80" s="19"/>
-      <c r="R80" s="19"/>
-      <c r="S80" s="19"/>
-      <c r="T80" s="19"/>
-      <c r="U80" s="19"/>
-      <c r="V80" s="19"/>
-      <c r="W80" s="20"/>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <v>2</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C81" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19"/>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="19"/>
-      <c r="S81" s="19"/>
-      <c r="T81" s="19"/>
-      <c r="U81" s="19"/>
-      <c r="V81" s="19"/>
-      <c r="W81" s="20"/>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
-        <v>3</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C82" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="19"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="19"/>
-      <c r="P82" s="19"/>
-      <c r="Q82" s="19"/>
-      <c r="R82" s="19"/>
-      <c r="S82" s="19"/>
-      <c r="T82" s="19"/>
-      <c r="U82" s="19"/>
-      <c r="V82" s="19"/>
-      <c r="W82" s="20"/>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
-      <c r="J83" s="21"/>
-      <c r="K83" s="21"/>
-      <c r="L83" s="21"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="21"/>
-      <c r="O83" s="21"/>
-      <c r="P83" s="21"/>
-      <c r="Q83" s="21"/>
-      <c r="R83" s="21"/>
-      <c r="S83" s="21"/>
-      <c r="T83" s="21"/>
-      <c r="U83" s="21"/>
-      <c r="V83" s="21"/>
-      <c r="W83" s="21"/>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="22"/>
-      <c r="O84" s="22"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="22"/>
-      <c r="S84" s="22"/>
-      <c r="T84" s="22"/>
-      <c r="U84" s="22"/>
-      <c r="V84" s="22"/>
-      <c r="W84" s="22"/>
-    </row>
-    <row r="85" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <v>1</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C85" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="H85" s="23"/>
-      <c r="I85" s="23"/>
-      <c r="J85" s="23"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="23"/>
-      <c r="M85" s="23"/>
-      <c r="N85" s="23"/>
-      <c r="O85" s="23"/>
-      <c r="P85" s="23"/>
-      <c r="Q85" s="23"/>
-      <c r="R85" s="23"/>
-      <c r="S85" s="23"/>
-      <c r="T85" s="23"/>
-      <c r="U85" s="23"/>
-      <c r="V85" s="23"/>
-      <c r="W85" s="23"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
+      <c r="M85" s="20"/>
+      <c r="N85" s="20"/>
+      <c r="O85" s="20"/>
+      <c r="P85" s="20"/>
+      <c r="Q85" s="20"/>
+      <c r="R85" s="20"/>
+      <c r="S85" s="20"/>
+      <c r="T85" s="20"/>
+      <c r="U85" s="20"/>
+      <c r="V85" s="20"/>
+      <c r="W85" s="21"/>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>2</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="20"/>
+      <c r="O86" s="20"/>
+      <c r="P86" s="20"/>
+      <c r="Q86" s="20"/>
+      <c r="R86" s="20"/>
+      <c r="S86" s="20"/>
+      <c r="T86" s="20"/>
+      <c r="U86" s="20"/>
+      <c r="V86" s="20"/>
+      <c r="W86" s="21"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>3</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="20"/>
+      <c r="M87" s="20"/>
+      <c r="N87" s="20"/>
+      <c r="O87" s="20"/>
+      <c r="P87" s="20"/>
+      <c r="Q87" s="20"/>
+      <c r="R87" s="20"/>
+      <c r="S87" s="20"/>
+      <c r="T87" s="20"/>
+      <c r="U87" s="20"/>
+      <c r="V87" s="20"/>
+      <c r="W87" s="21"/>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A88" s="22"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="22"/>
+      <c r="O88" s="22"/>
+      <c r="P88" s="22"/>
+      <c r="Q88" s="22"/>
+      <c r="R88" s="22"/>
+      <c r="S88" s="22"/>
+      <c r="T88" s="22"/>
+      <c r="U88" s="22"/>
+      <c r="V88" s="22"/>
+      <c r="W88" s="22"/>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A89" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="23"/>
+      <c r="M89" s="23"/>
+      <c r="N89" s="23"/>
+      <c r="O89" s="23"/>
+      <c r="P89" s="23"/>
+      <c r="Q89" s="23"/>
+      <c r="R89" s="23"/>
+      <c r="S89" s="23"/>
+      <c r="T89" s="23"/>
+      <c r="U89" s="23"/>
+      <c r="V89" s="23"/>
+      <c r="W89" s="23"/>
+    </row>
+    <row r="90" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>1</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C86" s="35" t="s">
+      <c r="C90" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="24"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="24"/>
+      <c r="O90" s="24"/>
+      <c r="P90" s="24"/>
+      <c r="Q90" s="24"/>
+      <c r="R90" s="24"/>
+      <c r="S90" s="24"/>
+      <c r="T90" s="24"/>
+      <c r="U90" s="24"/>
+      <c r="V90" s="24"/>
+      <c r="W90" s="24"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>2</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="23" t="s">
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="H86" s="23"/>
-      <c r="I86" s="23"/>
-      <c r="J86" s="23"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="23"/>
-      <c r="M86" s="23"/>
-      <c r="N86" s="23"/>
-      <c r="O86" s="23"/>
-      <c r="P86" s="23"/>
-      <c r="Q86" s="23"/>
-      <c r="R86" s="23"/>
-      <c r="S86" s="23"/>
-      <c r="T86" s="23"/>
-      <c r="U86" s="23"/>
-      <c r="V86" s="23"/>
-      <c r="W86" s="23"/>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="S87"/>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="S88"/>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="S89"/>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="S90"/>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="S91"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="24"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="24"/>
+      <c r="Q91" s="24"/>
+      <c r="R91" s="24"/>
+      <c r="S91" s="24"/>
+      <c r="T91" s="24"/>
+      <c r="U91" s="24"/>
+      <c r="V91" s="24"/>
+      <c r="W91" s="24"/>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="S92"/>
@@ -5554,29 +5734,23 @@
     <row r="487" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S487"/>
     </row>
+    <row r="488" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S488"/>
+    </row>
+    <row r="489" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S489"/>
+    </row>
+    <row r="490" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S490"/>
+    </row>
+    <row r="491" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S491"/>
+    </row>
+    <row r="492" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S492"/>
+    </row>
   </sheetData>
-  <mergeCells count="238">
-    <mergeCell ref="G75:S75"/>
-    <mergeCell ref="G74:S74"/>
-    <mergeCell ref="G73:S73"/>
-    <mergeCell ref="G72:S72"/>
-    <mergeCell ref="G71:S71"/>
-    <mergeCell ref="T70:W70"/>
-    <mergeCell ref="G70:S70"/>
-    <mergeCell ref="G69:S69"/>
-    <mergeCell ref="T69:W69"/>
-    <mergeCell ref="T71:W71"/>
-    <mergeCell ref="T72:W72"/>
-    <mergeCell ref="T73:W73"/>
-    <mergeCell ref="T74:W74"/>
-    <mergeCell ref="T75:W75"/>
-    <mergeCell ref="T65:W65"/>
-    <mergeCell ref="T61:W61"/>
-    <mergeCell ref="T60:W60"/>
-    <mergeCell ref="T59:W59"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="A4:W4"/>
-    <mergeCell ref="A3:W3"/>
+  <mergeCells count="253">
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="T63:W63"/>
     <mergeCell ref="T52:W52"/>
@@ -5594,15 +5768,20 @@
     <mergeCell ref="T31:W31"/>
     <mergeCell ref="T32:W32"/>
     <mergeCell ref="T51:W51"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="T43:W43"/>
     <mergeCell ref="T46:W46"/>
     <mergeCell ref="T38:W38"/>
     <mergeCell ref="T48:W48"/>
     <mergeCell ref="T47:W47"/>
     <mergeCell ref="T44:W44"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="T65:W65"/>
+    <mergeCell ref="T61:W61"/>
+    <mergeCell ref="T60:W60"/>
+    <mergeCell ref="T59:W59"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="A3:W3"/>
     <mergeCell ref="T36:W36"/>
     <mergeCell ref="T37:W37"/>
     <mergeCell ref="T39:W39"/>
@@ -5618,6 +5797,10 @@
     <mergeCell ref="G38:S38"/>
     <mergeCell ref="G39:S39"/>
     <mergeCell ref="G40:S40"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="T41:W41"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="G32:S32"/>
     <mergeCell ref="G33:S33"/>
@@ -5694,6 +5877,10 @@
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
@@ -5708,14 +5895,10 @@
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
     <mergeCell ref="C65:F65"/>
     <mergeCell ref="C66:F66"/>
     <mergeCell ref="C67:F67"/>
-    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="C81:F81"/>
     <mergeCell ref="G66:S66"/>
     <mergeCell ref="G67:S67"/>
     <mergeCell ref="G65:S65"/>
@@ -5730,24 +5913,13 @@
     <mergeCell ref="G61:S61"/>
     <mergeCell ref="G62:S62"/>
     <mergeCell ref="G63:S63"/>
-    <mergeCell ref="G76:S76"/>
+    <mergeCell ref="G81:S81"/>
     <mergeCell ref="C48:F48"/>
-    <mergeCell ref="T76:W76"/>
-    <mergeCell ref="T77:W77"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="C72:F72"/>
-    <mergeCell ref="C73:F73"/>
-    <mergeCell ref="G77:S77"/>
-    <mergeCell ref="T49:W49"/>
-    <mergeCell ref="T50:W50"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="G68:S68"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="C76:F76"/>
     <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="C82:F82"/>
     <mergeCell ref="C59:F59"/>
     <mergeCell ref="C60:F60"/>
     <mergeCell ref="G64:S64"/>
@@ -5756,8 +5928,21 @@
     <mergeCell ref="T68:W68"/>
     <mergeCell ref="T64:W64"/>
     <mergeCell ref="T62:W62"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="G80:S80"/>
+    <mergeCell ref="G74:S74"/>
+    <mergeCell ref="G73:S73"/>
+    <mergeCell ref="G72:S72"/>
+    <mergeCell ref="G71:S71"/>
+    <mergeCell ref="T70:W70"/>
+    <mergeCell ref="G70:S70"/>
+    <mergeCell ref="G69:S69"/>
+    <mergeCell ref="T69:W69"/>
+    <mergeCell ref="T71:W71"/>
+    <mergeCell ref="T72:W72"/>
+    <mergeCell ref="T73:W73"/>
+    <mergeCell ref="T74:W74"/>
+    <mergeCell ref="T80:W80"/>
+    <mergeCell ref="C75:F75"/>
     <mergeCell ref="T8:W8"/>
     <mergeCell ref="T6:W6"/>
     <mergeCell ref="T30:W30"/>
@@ -5780,20 +5965,45 @@
     <mergeCell ref="T20:W20"/>
     <mergeCell ref="T21:W21"/>
     <mergeCell ref="T22:W22"/>
-    <mergeCell ref="A78:W78"/>
-    <mergeCell ref="A79:W79"/>
-    <mergeCell ref="G80:W80"/>
-    <mergeCell ref="G81:W81"/>
-    <mergeCell ref="G82:W82"/>
     <mergeCell ref="A83:W83"/>
     <mergeCell ref="A84:W84"/>
+    <mergeCell ref="T81:W81"/>
+    <mergeCell ref="T82:W82"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="G82:S82"/>
+    <mergeCell ref="T49:W49"/>
+    <mergeCell ref="T50:W50"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="G68:S68"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="C80:F80"/>
     <mergeCell ref="G85:W85"/>
     <mergeCell ref="G86:W86"/>
+    <mergeCell ref="G87:W87"/>
+    <mergeCell ref="A88:W88"/>
+    <mergeCell ref="A89:W89"/>
+    <mergeCell ref="G90:W90"/>
+    <mergeCell ref="G91:W91"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="C91:F91"/>
     <mergeCell ref="C85:F85"/>
     <mergeCell ref="C86:F86"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="C81:F81"/>
-    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="G75:S75"/>
+    <mergeCell ref="G76:S76"/>
+    <mergeCell ref="G77:S77"/>
+    <mergeCell ref="G78:S78"/>
+    <mergeCell ref="G79:S79"/>
+    <mergeCell ref="T79:W79"/>
+    <mergeCell ref="T76:W76"/>
+    <mergeCell ref="T77:W77"/>
+    <mergeCell ref="T78:W78"/>
+    <mergeCell ref="T75:W75"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
